--- a/K_Chit.xlsx
+++ b/K_Chit.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\24507\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\chit\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>Names</t>
   </si>
@@ -81,6 +81,12 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>DhanaLakshmi</t>
   </si>
 </sst>
 </file>
@@ -407,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,6 +451,9 @@
       <c r="B2">
         <v>1000</v>
       </c>
+      <c r="C2">
+        <v>1000</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -453,6 +462,9 @@
       <c r="B3">
         <v>1000</v>
       </c>
+      <c r="C3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -461,6 +473,9 @@
       <c r="B4">
         <v>1000</v>
       </c>
+      <c r="C4">
+        <v>1000</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -469,6 +484,9 @@
       <c r="B5">
         <v>1000</v>
       </c>
+      <c r="C5">
+        <v>1000</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -477,6 +495,9 @@
       <c r="B6">
         <v>1000</v>
       </c>
+      <c r="C6">
+        <v>1000</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -485,6 +506,9 @@
       <c r="B7">
         <v>1000</v>
       </c>
+      <c r="C7">
+        <v>1000</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -493,6 +517,9 @@
       <c r="B8">
         <v>1000</v>
       </c>
+      <c r="C8">
+        <v>1000</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -578,7 +605,27 @@
       </c>
       <c r="C17" s="1">
         <f>SUM(C2:C16)</f>
-        <v>6000</v>
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
